--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value319.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value319.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7284754649477333</v>
+        <v>0.9263527393341064</v>
       </c>
       <c r="B1">
-        <v>0.9825603797172339</v>
+        <v>1.557147979736328</v>
       </c>
       <c r="C1">
-        <v>1.60934552955233</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.363889898708082</v>
+        <v>1.920924782752991</v>
       </c>
       <c r="E1">
-        <v>1.955136804402648</v>
+        <v>1.271753668785095</v>
       </c>
     </row>
   </sheetData>
